--- a/biology/Zoologie/Thomas_Dörflein/Thomas_Dörflein.xlsx
+++ b/biology/Zoologie/Thomas_Dörflein/Thomas_Dörflein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thomas_D%C3%B6rflein</t>
+          <t>Thomas_Dörflein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Dörflein, né le 13 octobre 1963 dans le quartier de Wedding à Berlin et mort le 22 septembre 2008 dans le quartier de Wilmersdorf à Berlin, est un gardien de zoo allemand au zoo de Berlin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas_D%C3%B6rflein</t>
+          <t>Thomas_Dörflein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Dörflein est principalement connu comme le soigneur qui a élevé l'ours polaire Knut du zoo de Berlin.
-Décès
-Dörflein est retrouvé mort chez lui à 44 ans d’une crise cardiaque le 22 septembre 2008[1].
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thomas_D%C3%B6rflein</t>
+          <t>Thomas_Dörflein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dörflein est retrouvé mort chez lui à 44 ans d’une crise cardiaque le 22 septembre 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Dörflein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_D%C3%B6rflein</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1994 : Berliner Zoogeschichten
 2006 : Berliner Schnauzen
